--- a/biology/Botanique/Condalia/Condalia.xlsx
+++ b/biology/Botanique/Condalia/Condalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Condalia est un genre de plantes à fleurs de la tribu des Rhamneae et de la famille du Nerprun, les Rhamnaceae[3]. 
-Le nom a été donné en hommage à Antoni Condal (1745-1804), médecin, botaniste et naturaliste espagnol du XVIIIe siècle[3]. Les espèces de ce genre sont des arbustes épineux originaires des déserts tropicaux et subtropicaux et des terres arbustives xériques d'Amérique du Nord et du Sud. Les aires de répartition de chaque espèce varient considérablement ; certaines espèces sont confinées dans quelques kilomètres-carrés seulement, tandis que d'autres peuvent se répartir sur des superficies allant jusqu'à 2 600 km2[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Condalia est un genre de plantes à fleurs de la tribu des Rhamneae et de la famille du Nerprun, les Rhamnaceae. 
+Le nom a été donné en hommage à Antoni Condal (1745-1804), médecin, botaniste et naturaliste espagnol du XVIIIe siècle. Les espèces de ce genre sont des arbustes épineux originaires des déserts tropicaux et subtropicaux et des terres arbustives xériques d'Amérique du Nord et du Sud. Les aires de répartition de chaque espèce varient considérablement ; certaines espèces sont confinées dans quelques kilomètres-carrés seulement, tandis que d'autres peuvent se répartir sur des superficies allant jusqu'à 2 600 km2.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Condalia sont souvent appelées « bois bleu » (bluewood), « aubépines violettes » (purple haw), « bois rond » (logwood)[5], ou encore « bois de serpent » (snakewood). Certaines espèces de l'hémisphère sud sont connues sous le nom de piquillín ou yuna. Largement utilisé le nom « bois de serpent » n'indique cependant aucune espèce particulière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Condalia sont souvent appelées « bois bleu » (bluewood), « aubépines violettes » (purple haw), « bois rond » (logwood), ou encore « bois de serpent » (snakewood). Certaines espèces de l'hémisphère sud sont connues sous le nom de piquillín ou yuna. Largement utilisé le nom « bois de serpent » n'indique cependant aucune espèce particulière.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2020)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2020) :
 Condalia brandegeei I. M. Johnston
 Condalia buxifolia Reiss.
 Condalia correllii M. C. Johnst.
@@ -596,7 +612,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Antonio José Cavanilles, Icones et descriptiones plantarum, quae aut sponte in Hispania crescunt, aut in hortis hospitantur - Volumen VI,  (publication), Inconnu, 1801, [lire en ligne]</t>
         </is>
